--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINPS/8.0.49.5/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINPS/8.0.49.5/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01\Shares\Rep-Software\A-FSE-2\Test Case\2-Verbale di Pronto Soccorso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01\Shares\Rep-Software\A-FSE-2\Test Case\0 AAA VALIDAZIONE\2-Verbale di Pronto Soccorso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F5F42-A56E-4B5D-920D-E436336B0959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A246A8-E480-4A1E-8830-9D8B041C8CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prerequisiti" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="157">
   <si>
     <t>PREREQUISITI</t>
   </si>
@@ -581,42 +581,6 @@
     <t>non è possibile salvare l'accettazione senza inserire il nome del paziente</t>
   </si>
   <si>
-    <t>b2f928fcc418cf0d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.04a9ccfd0a44257de7a4ed2fef7f961847ea2d49b7819a1e3bc1fb6588441ade.2ebe7a2852^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 14:23:46 GMT</t>
-  </si>
-  <si>
-    <t>1e02dc4ab5efb746</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.04a9ccfd0a44257de7a4ed2fef7f961847ea2d49b7819a1e3bc1fb6588441ade.8fcbfa3af6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 14:34:42 GMT</t>
-  </si>
-  <si>
-    <t>c43e96f439a2a25d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.04a9ccfd0a44257de7a4ed2fef7f961847ea2d49b7819a1e3bc1fb6588441ade.aa1aa20795^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 14:47:41 GMT</t>
-  </si>
-  <si>
-    <t>b3bdaddfb0d53d41</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.04a9ccfd0a44257de7a4ed2fef7f961847ea2d49b7819a1e3bc1fb6588441ade.e76acacf23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Mon, 30 Jan 2023 14:54:48 GMT</t>
-  </si>
-  <si>
     <t>non è possibile inserire valori diversi da M o F</t>
   </si>
   <si>
@@ -707,19 +671,6 @@
     <t>viene visualizzato un errore parlante e la gestione del cda2 è demandata al back office per non bloccare l'operatività di PS</t>
   </si>
   <si>
-    <t>viene visualizzato un errore parlante e la gestione del cda2 è demandata al back office per non bloccare l'operatività di PS
-{
-    "traceID": "21649c9192f0efc7",
-    "spanID": "21649c9192f0efc7",
-    "type": "/msg/jwt-validation",
-    "title": "Campo token JWT non valido.",
-    "detail": "Il campo resource_hl7_type non è valorizzato",
-    "status": 403,
-    "instance": "/jwt-mandatory-field-missing",
-    "workflowInstanceId": "UNKNOWN_WORKFLOW_ID"
-}</t>
-  </si>
-  <si>
     <t>21649c9192f0efc7</t>
   </si>
   <si>
@@ -729,19 +680,6 @@
     <t>Tue, 31 Jan 2023 10:58:58 GMT</t>
   </si>
   <si>
-    <t>viene visualizzato un errore parlante e la gestione del cda2 è demandata al back office per non bloccare l'operatività di PS
-{
-    "traceID": "6d855f2cf0bde0d1",
-    "spanID": "6d855f2cf0bde0d1",
-    "type": "/msg/jwt-validation",
-    "title": "Campo token JWT non valido.",
-    "detail": "JWT payload: Tipologia documento diversa dalla tipologia di CDA (code - codesystem)",
-    "status": 403,
-    "instance": "/jwt-document-type",
-    "workflowInstanceId": "2.16.840.1.113883.2.9.2.30.4.4.04a9ccfd0a44257de7a4ed2fef7f961847ea2d49b7819a1e3bc1fb6588441ade.26f0bd8971^^^^urn:ihe:iti:xdw:2013:workflowInstanceId"
-}</t>
-  </si>
-  <si>
     <t>4e9b440cac915892</t>
   </si>
   <si>
@@ -749,9 +687,6 @@
   </si>
   <si>
     <t>Tue, 31 Jan 2023 11:03:58 GMT</t>
-  </si>
-  <si>
-    <t>31/013/2023</t>
   </si>
   <si>
     <t>subject_application_id: WINPS</t>
@@ -764,6 +699,42 @@
   </si>
   <si>
     <t>B.C.S. Biomedical Computering Systems s.r.l.</t>
+  </si>
+  <si>
+    <t>Wed, 22 Feb 2023 11:00:56 GMT</t>
+  </si>
+  <si>
+    <t>bbd5a040035c502d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.04a9ccfd0a44257de7a4ed2fef7f961847ea2d49b7819a1e3bc1fb6588441ade.2b37b19a7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>32b8031214d9c899</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.04a9ccfd0a44257de7a4ed2fef7f961847ea2d49b7819a1e3bc1fb6588441ade.3600701c23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Wed, 22 Feb 2023 11:05:48 GMT</t>
+  </si>
+  <si>
+    <t>c17b507c0e29c21f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.04a9ccfd0a44257de7a4ed2fef7f961847ea2d49b7819a1e3bc1fb6588441ade.9ba07119e3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Wed, 22 Feb 2023 11:08:29 GMT</t>
+  </si>
+  <si>
+    <t>01a31e6928bd5482</t>
+  </si>
+  <si>
+    <t>Wed, 22 Feb 2023 11:11:27 GMT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.04a9ccfd0a44257de7a4ed2fef7f961847ea2d49b7819a1e3bc1fb6588441ade.7a4e3050e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2645,7 +2616,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -2685,7 +2656,7 @@
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="39" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D2" s="38"/>
       <c r="F2" s="7"/>
@@ -2705,7 +2676,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="46" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D3" s="38"/>
       <c r="F3" s="7"/>
@@ -2723,7 +2694,7 @@
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
       <c r="C4" s="46" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="D4" s="38"/>
       <c r="E4" s="2"/>
@@ -2742,7 +2713,7 @@
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
       <c r="C5" s="46" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D5" s="38"/>
       <c r="F5" s="7"/>
@@ -2862,16 +2833,16 @@
         <v>28</v>
       </c>
       <c r="F10" s="17">
-        <v>44956</v>
+        <v>44979</v>
       </c>
       <c r="G10" s="30" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -2901,16 +2872,16 @@
         <v>30</v>
       </c>
       <c r="F11" s="17">
-        <v>44956</v>
+        <v>44979</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="J11" s="19"/>
       <c r="K11" s="19" t="s">
@@ -2942,16 +2913,16 @@
         <v>32</v>
       </c>
       <c r="F12" s="17">
-        <v>44956</v>
+        <v>44979</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="J12" s="19"/>
       <c r="K12" s="19" t="s">
@@ -2983,16 +2954,16 @@
         <v>34</v>
       </c>
       <c r="F13" s="17">
-        <v>44956</v>
+        <v>44979</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="19" t="s">
@@ -3007,7 +2978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="317.39999999999998" thickBot="1">
+    <row r="14" spans="1:15" ht="101.4" thickBot="1">
       <c r="A14" s="14">
         <v>35</v>
       </c>
@@ -3027,16 +2998,16 @@
         <v>44957</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>36</v>
@@ -3048,7 +3019,7 @@
       </c>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="1:15" ht="403.8" thickBot="1">
+    <row r="15" spans="1:15" ht="115.8" thickBot="1">
       <c r="A15" s="14">
         <v>43</v>
       </c>
@@ -3064,20 +3035,20 @@
       <c r="E15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>155</v>
+      <c r="F15" s="34">
+        <v>44957</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>36</v>
@@ -3112,7 +3083,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>36</v>
@@ -3140,9 +3111,7 @@
       <c r="E17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -3175,9 +3144,7 @@
       <c r="E18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -3210,9 +3177,7 @@
       <c r="E19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -3222,7 +3187,7 @@
       </c>
       <c r="L19" s="19"/>
       <c r="M19" s="31" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N19" s="20" t="s">
         <v>36</v>
@@ -3245,9 +3210,7 @@
       <c r="E20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F20" s="17"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -3280,9 +3243,7 @@
       <c r="E21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -3315,9 +3276,7 @@
       <c r="E22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F22" s="17"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -3327,7 +3286,7 @@
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="31" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="N22" s="20" t="s">
         <v>36</v>
@@ -3350,9 +3309,7 @@
       <c r="E23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -3362,7 +3319,7 @@
       </c>
       <c r="L23" s="19"/>
       <c r="M23" s="31" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="N23" s="20" t="s">
         <v>36</v>
@@ -3385,9 +3342,7 @@
       <c r="E24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F24" s="17"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -3397,7 +3352,7 @@
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="31" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="N24" s="20" t="s">
         <v>36</v>
@@ -3420,9 +3375,7 @@
       <c r="E25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F25" s="17"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -3432,7 +3385,7 @@
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="31" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="N25" s="20" t="s">
         <v>36</v>
@@ -3455,9 +3408,7 @@
       <c r="E26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F26" s="17"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -3467,7 +3418,7 @@
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="31" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="N26" s="20" t="s">
         <v>36</v>
@@ -3490,9 +3441,7 @@
       <c r="E27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F27" s="17"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -3502,7 +3451,7 @@
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N27" s="20" t="s">
         <v>36</v>
@@ -3525,9 +3474,7 @@
       <c r="E28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F28" s="17"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -3537,7 +3484,7 @@
       </c>
       <c r="L28" s="19"/>
       <c r="M28" s="31" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N28" s="20" t="s">
         <v>36</v>
@@ -3560,9 +3507,7 @@
       <c r="E29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F29" s="17"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -3572,7 +3517,7 @@
       </c>
       <c r="L29" s="19"/>
       <c r="M29" s="31" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="N29" s="20" t="s">
         <v>36</v>
@@ -3595,9 +3540,7 @@
       <c r="E30" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -3607,7 +3550,7 @@
       </c>
       <c r="L30" s="19"/>
       <c r="M30" s="31" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="N30" s="20" t="s">
         <v>36</v>
@@ -3630,9 +3573,7 @@
       <c r="E31" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
@@ -3642,7 +3583,7 @@
       </c>
       <c r="L31" s="19"/>
       <c r="M31" s="31" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N31" s="20" t="s">
         <v>36</v>
@@ -3665,9 +3606,7 @@
       <c r="E32" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -3677,7 +3616,7 @@
       </c>
       <c r="L32" s="19"/>
       <c r="M32" s="31" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="N32" s="20" t="s">
         <v>36</v>
@@ -3700,9 +3639,7 @@
       <c r="E33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F33" s="17"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
@@ -3712,7 +3649,7 @@
       </c>
       <c r="L33" s="19"/>
       <c r="M33" s="31" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="N33" s="20" t="s">
         <v>36</v>
@@ -3735,9 +3672,7 @@
       <c r="E34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F34" s="17"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -3747,7 +3682,7 @@
       </c>
       <c r="L34" s="19"/>
       <c r="M34" s="31" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="N34" s="20" t="s">
         <v>36</v>
@@ -3770,9 +3705,7 @@
       <c r="E35" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F35" s="17"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
@@ -3782,7 +3715,7 @@
       </c>
       <c r="L35" s="19"/>
       <c r="M35" s="31" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="N35" s="20" t="s">
         <v>36</v>
@@ -3805,9 +3738,7 @@
       <c r="E36" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F36" s="17"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -3817,7 +3748,7 @@
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="31" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="N36" s="20" t="s">
         <v>36</v>
@@ -3844,15 +3775,17 @@
         <v>44956</v>
       </c>
       <c r="G37" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="I37" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="J37" s="19"/>
       <c r="K37" s="31" t="s">
         <v>36</v>
       </c>
@@ -3860,9 +3793,11 @@
         <v>97</v>
       </c>
       <c r="M37" s="31"/>
-      <c r="N37" s="20"/>
+      <c r="N37" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="O37" s="18" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="101.4" thickBot="1">
@@ -3885,15 +3820,17 @@
         <v>44956</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="J38" s="19"/>
+        <v>127</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="K38" s="31" t="s">
         <v>36</v>
       </c>
@@ -3901,9 +3838,11 @@
         <v>97</v>
       </c>
       <c r="M38" s="19"/>
-      <c r="N38" s="20"/>
+      <c r="N38" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="O38" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="101.4" thickBot="1">
@@ -3926,15 +3865,17 @@
         <v>44956</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="J39" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="K39" s="31" t="s">
         <v>36</v>
       </c>
@@ -3942,9 +3883,11 @@
         <v>97</v>
       </c>
       <c r="M39" s="19"/>
-      <c r="N39" s="33"/>
+      <c r="N39" s="33" t="s">
+        <v>36</v>
+      </c>
       <c r="O39" s="30" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="115.8" thickBot="1">
@@ -3963,9 +3906,7 @@
       <c r="E40" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F40" s="17"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
@@ -3975,7 +3916,7 @@
       </c>
       <c r="L40" s="19"/>
       <c r="M40" s="31" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="N40" s="20" t="s">
         <v>36</v>
@@ -3998,9 +3939,7 @@
       <c r="E41" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F41" s="17"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
@@ -4010,7 +3949,7 @@
       </c>
       <c r="L41" s="19"/>
       <c r="M41" s="31" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="N41" s="20" t="s">
         <v>36</v>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINPS/8.0.49.5/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINPS/8.0.49.5/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Nazionale\Test Case\0 AAA VALIDAZIONE\2-Verbale di Pronto Soccorso\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.casiraghi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E74670-CC81-4C7B-9E69-0578919FF62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49532713-A09E-4EFC-9D49-CEE862CAB3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2618,10 +2618,10 @@
   <dimension ref="A1:O886"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3090,9 +3090,7 @@
       <c r="E17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -3125,9 +3123,7 @@
       <c r="E18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -3160,9 +3156,7 @@
       <c r="E19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -3195,9 +3189,7 @@
       <c r="E20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F20" s="17"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -3230,9 +3222,7 @@
       <c r="E21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -3265,9 +3255,7 @@
       <c r="E22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F22" s="17"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -3300,9 +3288,7 @@
       <c r="E23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -3335,9 +3321,7 @@
       <c r="E24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F24" s="17"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -3370,9 +3354,7 @@
       <c r="E25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F25" s="17"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -3405,9 +3387,7 @@
       <c r="E26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F26" s="17"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -3440,9 +3420,7 @@
       <c r="E27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F27" s="17"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -3475,9 +3453,7 @@
       <c r="E28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F28" s="17"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -3510,9 +3486,7 @@
       <c r="E29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F29" s="17"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -3545,9 +3519,7 @@
       <c r="E30" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -3580,9 +3552,7 @@
       <c r="E31" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
@@ -3615,9 +3585,7 @@
       <c r="E32" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -3650,9 +3618,7 @@
       <c r="E33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F33" s="17"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
@@ -3685,9 +3651,7 @@
       <c r="E34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F34" s="17"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -3720,9 +3684,7 @@
       <c r="E35" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F35" s="17"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
@@ -3755,9 +3717,7 @@
       <c r="E36" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F36" s="17"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -3919,9 +3879,7 @@
       <c r="E40" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F40" s="17"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
@@ -3954,9 +3912,7 @@
       <c r="E41" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F41" s="17"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINPS/8.0.49.5/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINPS/8.0.49.5/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.casiraghi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Nazionale\Test Case\0 AAA VALIDAZIONE\2-Verbale di Pronto Soccorso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49532713-A09E-4EFC-9D49-CEE862CAB3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4160536-DE69-4834-9D6E-97C2A4AE560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,15 +709,6 @@
     <t>Il programma non gestisce le informazioni che andrebbero inserite nei tag opzionali</t>
   </si>
   <si>
-    <t>edb395b93d59f4a6</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.9eb5401015b651f0b3c38fb7848ecb6c90e67e0a6832544b70cc908c3735d9d8.0d5e746caf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Wed, 10 May 2023 09:24:32 GMT</t>
-  </si>
-  <si>
     <t>viene visualizzato il seguente messaggio di errore: "Errore nella validazione del CDA2: " + la descrizione dell'errore ritornata dal gateway.
 L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
 1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
@@ -734,6 +725,15 @@
 L'applicativo può essere configurato per comportarsi nei seguenti modi a seconda delle disposizioni regionali e delle scelte aziendali:
 1. L'errore è bloccante e il referto torna in coda di firma. Dopo che l'errore è stato corretto dal medico o dal personale amministrativo, il referto può essere firmato nuovamente e inviato al respoitory aziendale  che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.
 2. Il referto viene comunque firmato e inviato al repository aziendale per la consegna al paziente e la consultazione interna. Una volta corretto l'errore,  il medico può  generare e firmare un referto sostitutivo e archiviarlo su respoitory aziendale che si occuperà dell'invio a FSE o al middelware regionale che invierà il documento al FSE.</t>
+  </si>
+  <si>
+    <t>04f797f2891dd54c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.9eb5401015b651f0b3c38fb7848ecb6c90e67e0a6832544b70cc908c3735d9d8.c3da7831ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Thu, 18 May 2023 12:41:03 GMT</t>
   </si>
 </sst>
 </file>
@@ -2618,10 +2618,10 @@
   <dimension ref="A1:O886"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2838,16 +2838,16 @@
         <v>28</v>
       </c>
       <c r="F10" s="17">
-        <v>45056</v>
+        <v>45064</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J10" s="19"/>
       <c r="K10" s="19" t="s">
@@ -2982,7 +2982,7 @@
         <v>131</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K14" s="31" t="s">
         <v>36</v>
@@ -3025,7 +3025,7 @@
         <v>134</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>36</v>
@@ -3060,7 +3060,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>36</v>
@@ -3090,7 +3090,9 @@
       <c r="E17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17">
+        <v>44956</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -3123,7 +3125,9 @@
       <c r="E18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="17">
+        <v>44956</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -3156,7 +3160,9 @@
       <c r="E19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="17">
+        <v>44956</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -3189,7 +3195,9 @@
       <c r="E20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="17"/>
+      <c r="F20" s="17">
+        <v>44956</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -3222,7 +3230,9 @@
       <c r="E21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="17">
+        <v>44956</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -3255,7 +3265,9 @@
       <c r="E22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="17"/>
+      <c r="F22" s="17">
+        <v>44956</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -3288,7 +3300,9 @@
       <c r="E23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="17">
+        <v>44956</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -3321,7 +3335,9 @@
       <c r="E24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="17">
+        <v>44956</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -3354,7 +3370,9 @@
       <c r="E25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="17"/>
+      <c r="F25" s="17">
+        <v>44956</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -3387,7 +3405,9 @@
       <c r="E26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="17"/>
+      <c r="F26" s="17">
+        <v>44956</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -3420,7 +3440,9 @@
       <c r="E27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="17"/>
+      <c r="F27" s="17">
+        <v>44956</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -3453,7 +3475,9 @@
       <c r="E28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="17"/>
+      <c r="F28" s="17">
+        <v>44956</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -3486,7 +3510,9 @@
       <c r="E29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="17"/>
+      <c r="F29" s="17">
+        <v>44956</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -3519,7 +3545,9 @@
       <c r="E30" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="17"/>
+      <c r="F30" s="17">
+        <v>44956</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -3552,7 +3580,9 @@
       <c r="E31" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="17"/>
+      <c r="F31" s="17">
+        <v>44956</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
@@ -3585,7 +3615,9 @@
       <c r="E32" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="17"/>
+      <c r="F32" s="17">
+        <v>44956</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -3618,7 +3650,9 @@
       <c r="E33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="17"/>
+      <c r="F33" s="17">
+        <v>44956</v>
+      </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
@@ -3651,7 +3685,9 @@
       <c r="E34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="17"/>
+      <c r="F34" s="17">
+        <v>44956</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -3684,7 +3720,9 @@
       <c r="E35" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="17"/>
+      <c r="F35" s="17">
+        <v>44956</v>
+      </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
@@ -3717,7 +3755,9 @@
       <c r="E36" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="17"/>
+      <c r="F36" s="17">
+        <v>44956</v>
+      </c>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -3763,7 +3803,7 @@
         <v>120</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>36</v>
@@ -3806,7 +3846,7 @@
         <v>124</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K38" s="31" t="s">
         <v>36</v>
@@ -3849,7 +3889,7 @@
         <v>126</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K39" s="31" t="s">
         <v>36</v>
@@ -3879,7 +3919,9 @@
       <c r="E40" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="17"/>
+      <c r="F40" s="17">
+        <v>44956</v>
+      </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
@@ -3912,7 +3954,9 @@
       <c r="E41" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="17"/>
+      <c r="F41" s="17">
+        <v>44956</v>
+      </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>

--- a/GATEWAY/A1#111BCSSRL00000/BCS/WINPS/8.0.49.5/report-checklist.xlsx
+++ b/GATEWAY/A1#111BCSSRL00000/BCS/WINPS/8.0.49.5/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vm-fs01.bcs.it\Shares\Rep-Software\A-FSE-2\Nazionale\Test Case\0 AAA VALIDAZIONE\2-Verbale di Pronto Soccorso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4160536-DE69-4834-9D6E-97C2A4AE560F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAF81CC-9ED0-4128-A1C8-838A9CB2FBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2618,10 +2618,10 @@
   <dimension ref="A1:O886"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3090,9 +3090,7 @@
       <c r="E17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F17" s="17"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -3125,9 +3123,7 @@
       <c r="E18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F18" s="17"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -3160,9 +3156,7 @@
       <c r="E19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F19" s="17"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -3195,9 +3189,7 @@
       <c r="E20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F20" s="17"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -3230,9 +3222,7 @@
       <c r="E21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -3265,9 +3255,7 @@
       <c r="E22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F22" s="17"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -3300,9 +3288,7 @@
       <c r="E23" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -3335,9 +3321,7 @@
       <c r="E24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F24" s="17"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -3370,9 +3354,7 @@
       <c r="E25" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F25" s="17"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -3405,9 +3387,7 @@
       <c r="E26" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F26" s="17"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -3440,9 +3420,7 @@
       <c r="E27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F27" s="17"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -3475,9 +3453,7 @@
       <c r="E28" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F28" s="17"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -3510,9 +3486,7 @@
       <c r="E29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F29" s="17"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -3545,9 +3519,7 @@
       <c r="E30" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -3580,9 +3552,7 @@
       <c r="E31" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
@@ -3615,9 +3585,7 @@
       <c r="E32" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -3650,9 +3618,7 @@
       <c r="E33" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F33" s="17"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
@@ -3685,9 +3651,7 @@
       <c r="E34" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F34" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F34" s="17"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -3720,9 +3684,7 @@
       <c r="E35" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F35" s="17"/>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="18"/>
@@ -3755,9 +3717,7 @@
       <c r="E36" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="F36" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F36" s="17"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -3919,9 +3879,7 @@
       <c r="E40" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F40" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F40" s="17"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
@@ -3954,9 +3912,7 @@
       <c r="E41" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="17">
-        <v>44956</v>
-      </c>
+      <c r="F41" s="17"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
       <c r="I41" s="18"/>
